--- a/doc/策划文档/神仙列表.xlsx
+++ b/doc/策划文档/神仙列表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>唐僧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>牛魔王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +210,10 @@
   </si>
   <si>
     <t>七仙女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申公豹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,14 +636,14 @@
   <dimension ref="A2:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -666,27 +666,27 @@
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -700,174 +700,174 @@
       </c>
     </row>
     <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
         <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
         <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
         <v>34</v>
-      </c>
-      <c r="C34" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
         <v>37</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/doc/策划文档/神仙列表.xlsx
+++ b/doc/策划文档/神仙列表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>杨戬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,14 @@
   </si>
   <si>
     <t>申公豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,70 +644,103 @@
   <dimension ref="A2:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -707,17 +748,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>3</v>
       </c>

--- a/doc/策划文档/神仙列表.xlsx
+++ b/doc/策划文档/神仙列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>杨戬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,8 +281,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -299,19 +301,21 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C42"/>
+  <dimension ref="A2:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -747,11 +751,17 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
@@ -765,31 +775,34 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="B18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="B19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="B20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -797,17 +810,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="B23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -815,12 +828,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="B25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -828,32 +841,32 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="B27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="B28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="B32" t="s">
         <v>30</v>
       </c>

--- a/doc/策划文档/神仙列表.xlsx
+++ b/doc/策划文档/神仙列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>杨戬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>申公豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -281,8 +285,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -301,7 +309,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -309,6 +317,8 @@
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -316,6 +326,8 @@
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,7 +660,7 @@
   <dimension ref="A2:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -783,6 +795,9 @@
       <c r="B17" t="s">
         <v>23</v>
       </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
@@ -791,10 +806,16 @@
       <c r="B18" t="s">
         <v>25</v>
       </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
         <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4">

--- a/doc/策划文档/神仙列表.xlsx
+++ b/doc/策划文档/神仙列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>杨戬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>申公豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -660,7 +664,7 @@
   <dimension ref="A2:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -822,6 +826,9 @@
       <c r="B20" t="s">
         <v>46</v>
       </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
@@ -830,15 +837,24 @@
       <c r="B21" t="s">
         <v>13</v>
       </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
         <v>14</v>
       </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" t="s">
         <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4">

--- a/doc/策划文档/神仙列表.xlsx
+++ b/doc/策划文档/神仙列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>杨戬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>申公豹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -664,7 +668,7 @@
   <dimension ref="A2:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -864,11 +868,17 @@
       <c r="B24" t="s">
         <v>17</v>
       </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" t="s">
         <v>21</v>
       </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
@@ -886,6 +896,9 @@
     <row r="28" spans="1:4">
       <c r="B28" t="s">
         <v>22</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:4">

--- a/doc/策划文档/神仙列表.xlsx
+++ b/doc/策划文档/神仙列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>杨戬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,9 @@
   <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宓妃</t>
   </si>
 </sst>
 </file>
@@ -293,8 +296,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -317,7 +326,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="25">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -327,6 +336,9 @@
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -336,6 +348,9 @@
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -665,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D42"/>
+  <dimension ref="A2:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -921,60 +936,71 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:4">
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:4">
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:4">
       <c r="B37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="2:3">
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
       <c r="B38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:4">
       <c r="B39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:4">
       <c r="B40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:4">
       <c r="B41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:4">
       <c r="B42" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/doc/策划文档/神仙列表.xlsx
+++ b/doc/策划文档/神仙列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>杨戬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>精卫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>铁扇公主</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,6 +234,18 @@
   </si>
   <si>
     <t>宓妃</t>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -296,8 +304,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -326,7 +338,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="29">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -339,6 +351,8 @@
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -351,6 +365,8 @@
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -680,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D43"/>
+  <dimension ref="A2:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -696,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -704,7 +720,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -712,7 +728,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -720,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -728,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -736,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -744,7 +760,7 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -752,31 +768,31 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -787,7 +803,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -795,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -803,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -811,7 +827,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -819,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -830,23 +846,23 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -857,7 +873,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -865,7 +881,7 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -873,7 +889,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -884,7 +900,7 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -892,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -913,7 +929,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -940,6 +956,9 @@
       <c r="B33" t="s">
         <v>32</v>
       </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
@@ -959,7 +978,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
@@ -970,13 +989,16 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
         <v>39</v>
       </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
@@ -987,19 +1009,20 @@
       <c r="B40" t="s">
         <v>41</v>
       </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
         <v>54</v>
       </c>
     </row>

--- a/doc/策划文档/神仙列表.xlsx
+++ b/doc/策划文档/神仙列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>杨戬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日夜游神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瑶姬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,6 +237,18 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜游神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日游神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -696,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D42"/>
+  <dimension ref="A2:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -712,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -720,7 +728,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -728,7 +736,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -736,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -744,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -752,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -760,39 +768,39 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -803,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -811,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -819,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -827,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -835,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -846,23 +854,23 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -873,7 +881,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -881,7 +889,7 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -889,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -900,7 +908,7 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -908,7 +916,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -929,7 +937,7 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -944,86 +952,103 @@
     </row>
     <row r="31" spans="1:4">
       <c r="B31" t="s">
-        <v>29</v>
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="C32" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
         <v>53</v>
-      </c>
-      <c r="C42" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/doc/策划文档/神仙列表.xlsx
+++ b/doc/策划文档/神仙列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
   <si>
     <t>杨戬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黑白无常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>瑶姬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,6 +245,22 @@
   </si>
   <si>
     <t>日游神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白无常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑无常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -704,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D43"/>
+  <dimension ref="A2:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -720,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -728,7 +740,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -736,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -744,7 +756,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -752,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -760,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -768,39 +780,39 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -811,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -819,7 +831,7 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -827,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -835,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -843,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -854,23 +866,23 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -881,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -889,7 +901,7 @@
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -897,7 +909,7 @@
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -908,7 +920,7 @@
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -916,7 +928,7 @@
         <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -937,25 +949,31 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" t="s">
         <v>27</v>
       </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" t="s">
-        <v>28</v>
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -963,92 +981,100 @@
         <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" t="s">
         <v>52</v>
-      </c>
-      <c r="C43" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/doc/策划文档/神仙列表.xlsx
+++ b/doc/策划文档/神仙列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>杨戬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>托塔李天王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>赵公明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,22 +145,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿甘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>麻姑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后羿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我练的不是剑，是箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>嫦娥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -197,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>七仙女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>申公豹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,6 +242,40 @@
   <si>
     <t>ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁拐李</t>
+  </si>
+  <si>
+    <t>todo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉钟离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张果老</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张道陵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝采和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩湘子</t>
   </si>
   <si>
     <t>ok</t>
@@ -272,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,6 +320,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -324,7 +346,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -354,11 +376,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="37">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -373,6 +404,10 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -387,6 +422,10 @@
     <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -716,365 +755,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D44"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="B19" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="B25" t="s">
-        <v>21</v>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
         <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="B32" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>28</v>
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="B36" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" t="s">
-        <v>44</v>
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="B44" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/doc/策划文档/神仙列表.xlsx
+++ b/doc/策划文档/神仙列表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
   <si>
     <t>杨戬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,26 @@
   </si>
   <si>
     <t>韩湘子</t>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八部众</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修罗王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迦楼罗王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧那罗王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ok</t>
@@ -346,8 +366,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -389,7 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="41">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -408,6 +432,8 @@
     <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -426,6 +452,8 @@
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -755,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1043,7 +1071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="1:4">
       <c r="B33" t="s">
         <v>26</v>
       </c>
@@ -1051,7 +1079,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="1:4">
       <c r="B34" t="s">
         <v>54</v>
       </c>
@@ -1059,7 +1087,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="1:4">
       <c r="B35" t="s">
         <v>53</v>
       </c>
@@ -1067,7 +1095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="1:4">
       <c r="B36" t="s">
         <v>51</v>
       </c>
@@ -1075,7 +1103,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:4">
       <c r="B37" t="s">
         <v>50</v>
       </c>
@@ -1083,7 +1111,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="1:4">
       <c r="B38" t="s">
         <v>27</v>
       </c>
@@ -1094,7 +1122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="1:4">
       <c r="B39" t="s">
         <v>29</v>
       </c>
@@ -1102,7 +1130,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="1:4">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -1110,7 +1138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="1:4">
       <c r="B41" t="s">
         <v>31</v>
       </c>
@@ -1118,7 +1146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="1:4">
       <c r="B42" t="s">
         <v>32</v>
       </c>
@@ -1126,7 +1154,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="1:4">
       <c r="B43" t="s">
         <v>33</v>
       </c>
@@ -1134,7 +1162,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="1:4">
       <c r="B44" t="s">
         <v>34</v>
       </c>
@@ -1142,7 +1170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="1:4">
       <c r="B45" t="s">
         <v>35</v>
       </c>
@@ -1150,7 +1178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="1:4">
       <c r="B46" t="s">
         <v>46</v>
       </c>
@@ -1158,12 +1186,39 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="1:4">
       <c r="B47" t="s">
         <v>62</v>
       </c>
       <c r="C47" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
